--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H2">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I2">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J2">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N2">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O2">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P2">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q2">
-        <v>1189.229942782787</v>
+        <v>1929.67142994191</v>
       </c>
       <c r="R2">
-        <v>10703.06948504508</v>
+        <v>17367.04286947719</v>
       </c>
       <c r="S2">
-        <v>0.08288244238485672</v>
+        <v>0.09318238921681656</v>
       </c>
       <c r="T2">
-        <v>0.08288244238485672</v>
+        <v>0.09318238921681651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H3">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I3">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J3">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>89.98324</v>
       </c>
       <c r="O3">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P3">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q3">
-        <v>247.2237528683555</v>
+        <v>384.4817476187378</v>
       </c>
       <c r="R3">
-        <v>2225.0137758152</v>
+        <v>3460.33572856864</v>
       </c>
       <c r="S3">
-        <v>0.01723006436024638</v>
+        <v>0.01856633585254956</v>
       </c>
       <c r="T3">
-        <v>0.01723006436024638</v>
+        <v>0.01856633585254956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H4">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I4">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J4">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N4">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O4">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P4">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q4">
-        <v>260.5312200568356</v>
+        <v>432.7829442977165</v>
       </c>
       <c r="R4">
-        <v>2344.78098051152</v>
+        <v>3895.046498679448</v>
       </c>
       <c r="S4">
-        <v>0.01815751778439803</v>
+        <v>0.0208987644923383</v>
       </c>
       <c r="T4">
-        <v>0.01815751778439803</v>
+        <v>0.02089876449233829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H5">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I5">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J5">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N5">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O5">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P5">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q5">
-        <v>120.9530062543156</v>
+        <v>230.0405249664933</v>
       </c>
       <c r="R5">
-        <v>1088.57705628884</v>
+        <v>2070.36472469844</v>
       </c>
       <c r="S5">
-        <v>0.008429724321177451</v>
+        <v>0.01110848479200103</v>
       </c>
       <c r="T5">
-        <v>0.008429724321177451</v>
+        <v>0.01110848479200103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H6">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I6">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J6">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N6">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O6">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P6">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q6">
-        <v>270.1201533273222</v>
+        <v>442.5066323742232</v>
       </c>
       <c r="R6">
-        <v>2431.0813799459</v>
+        <v>3982.559691368008</v>
       </c>
       <c r="S6">
-        <v>0.01882581092160548</v>
+        <v>0.02136831411250096</v>
       </c>
       <c r="T6">
-        <v>0.01882581092160548</v>
+        <v>0.02136831411250095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>48.665764</v>
       </c>
       <c r="I7">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J7">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N7">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O7">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P7">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q7">
-        <v>2340.552050319149</v>
+        <v>2442.026105482357</v>
       </c>
       <c r="R7">
-        <v>21064.96845287234</v>
+        <v>21978.23494934121</v>
       </c>
       <c r="S7">
-        <v>0.1631229281070731</v>
+        <v>0.1179236130606618</v>
       </c>
       <c r="T7">
-        <v>0.1631229281070731</v>
+        <v>0.1179236130606618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>48.665764</v>
       </c>
       <c r="I8">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J8">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>89.98324</v>
       </c>
       <c r="O8">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P8">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q8">
-        <v>486.5670135328178</v>
+        <v>486.5670135328177</v>
       </c>
       <c r="R8">
         <v>4379.10312179536</v>
       </c>
       <c r="S8">
-        <v>0.03391090403521018</v>
+        <v>0.02349595694456851</v>
       </c>
       <c r="T8">
-        <v>0.03391090403521018</v>
+        <v>0.02349595694456851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>48.665764</v>
       </c>
       <c r="I9">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J9">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N9">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O9">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P9">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q9">
-        <v>512.7577597392818</v>
+        <v>547.6928515308724</v>
       </c>
       <c r="R9">
-        <v>4614.819837653537</v>
+        <v>4929.235663777851</v>
       </c>
       <c r="S9">
-        <v>0.03573624742371764</v>
+        <v>0.02644767791590003</v>
       </c>
       <c r="T9">
-        <v>0.03573624742371764</v>
+        <v>0.02644767791590002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>48.665764</v>
       </c>
       <c r="I10">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J10">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N10">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O10">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P10">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q10">
-        <v>238.0505204219458</v>
+        <v>291.1194924536733</v>
       </c>
       <c r="R10">
-        <v>2142.454683797512</v>
+        <v>2620.07543208306</v>
       </c>
       <c r="S10">
-        <v>0.01659074316392386</v>
+        <v>0.01405794242143954</v>
       </c>
       <c r="T10">
-        <v>0.01659074316392386</v>
+        <v>0.01405794242143954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>48.665764</v>
       </c>
       <c r="I11">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J11">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N11">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O11">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P11">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q11">
-        <v>531.6299699142911</v>
+        <v>559.998314396699</v>
       </c>
       <c r="R11">
-        <v>4784.66972922862</v>
+        <v>5039.984829570291</v>
       </c>
       <c r="S11">
-        <v>0.03705153121891452</v>
+        <v>0.0270418995084802</v>
       </c>
       <c r="T11">
-        <v>0.03705153121891452</v>
+        <v>0.02704189950848019</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H12">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I12">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J12">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N12">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O12">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P12">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q12">
-        <v>1451.16950803396</v>
+        <v>4370.981573614378</v>
       </c>
       <c r="R12">
-        <v>13060.52557230564</v>
+        <v>39338.83416252941</v>
       </c>
       <c r="S12">
-        <v>0.1011381136761825</v>
+        <v>0.2110714290174932</v>
       </c>
       <c r="T12">
-        <v>0.1011381136761825</v>
+        <v>0.2110714290174931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H13">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I13">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J13">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>89.98324</v>
       </c>
       <c r="O13">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P13">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q13">
-        <v>301.6772105357333</v>
+        <v>870.9061077217422</v>
       </c>
       <c r="R13">
-        <v>2715.0948948216</v>
+        <v>7838.154969495679</v>
       </c>
       <c r="S13">
-        <v>0.02102515512058474</v>
+        <v>0.04205540416975192</v>
       </c>
       <c r="T13">
-        <v>0.02102515512058474</v>
+        <v>0.0420554041697519</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H14">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I14">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J14">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N14">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O14">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P14">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q14">
-        <v>317.9157779635733</v>
+        <v>980.3152213104196</v>
       </c>
       <c r="R14">
-        <v>2861.24200167216</v>
+        <v>8822.836991793776</v>
       </c>
       <c r="S14">
-        <v>0.02215688926284926</v>
+        <v>0.04733868838492733</v>
       </c>
       <c r="T14">
-        <v>0.02215688926284926</v>
+        <v>0.0473386883849273</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H15">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I15">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J15">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N15">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O15">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P15">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q15">
-        <v>147.5940928384133</v>
+        <v>521.0746659825866</v>
       </c>
       <c r="R15">
-        <v>1328.34683554572</v>
+        <v>4689.67199384328</v>
       </c>
       <c r="S15">
-        <v>0.01028645382691927</v>
+        <v>0.02516230565639548</v>
       </c>
       <c r="T15">
-        <v>0.01028645382691928</v>
+        <v>0.02516230565639547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H16">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I16">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J16">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N16">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O16">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P16">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q16">
-        <v>329.6167678866333</v>
+        <v>1002.340764493833</v>
       </c>
       <c r="R16">
-        <v>2966.5509109797</v>
+        <v>9021.066880444496</v>
       </c>
       <c r="S16">
-        <v>0.02297238052173438</v>
+        <v>0.0484022853816919</v>
       </c>
       <c r="T16">
-        <v>0.02297238052173438</v>
+        <v>0.04840228538169188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H17">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I17">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J17">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N17">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O17">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P17">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q17">
-        <v>352.0956954252833</v>
+        <v>582.3277488265121</v>
       </c>
       <c r="R17">
-        <v>3168.86125882755</v>
+        <v>5240.949739438609</v>
       </c>
       <c r="S17">
-        <v>0.02453903163735956</v>
+        <v>0.0281201711861061</v>
       </c>
       <c r="T17">
-        <v>0.02453903163735956</v>
+        <v>0.02812017118610609</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H18">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I18">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J18">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>89.98324</v>
       </c>
       <c r="O18">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P18">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q18">
-        <v>73.19561681077778</v>
+        <v>116.0272091308533</v>
       </c>
       <c r="R18">
-        <v>658.760551297</v>
+        <v>1044.24488217768</v>
       </c>
       <c r="S18">
-        <v>0.005101310751516633</v>
+        <v>0.005602867096030757</v>
       </c>
       <c r="T18">
-        <v>0.005101310751516633</v>
+        <v>0.005602867096030756</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H19">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I19">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J19">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N19">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O19">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P19">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q19">
-        <v>77.1355629435778</v>
+        <v>130.6033316205474</v>
       </c>
       <c r="R19">
-        <v>694.2200664922001</v>
+        <v>1175.429984584926</v>
       </c>
       <c r="S19">
-        <v>0.005375902188044969</v>
+        <v>0.006306737142522325</v>
       </c>
       <c r="T19">
-        <v>0.005375902188044969</v>
+        <v>0.006306737142522323</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H20">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I20">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J20">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N20">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O20">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P20">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q20">
-        <v>35.81059584762778</v>
+        <v>69.42061688017</v>
       </c>
       <c r="R20">
-        <v>322.29536262865</v>
+        <v>624.7855519215301</v>
       </c>
       <c r="S20">
-        <v>0.002495791217771682</v>
+        <v>0.003352269635869688</v>
       </c>
       <c r="T20">
-        <v>0.002495791217771682</v>
+        <v>0.003352269635869687</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H21">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I21">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J21">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N21">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O21">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P21">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q21">
-        <v>79.97456153148612</v>
+        <v>133.5377034001274</v>
       </c>
       <c r="R21">
-        <v>719.771053783375</v>
+        <v>1201.839330601146</v>
       </c>
       <c r="S21">
-        <v>0.005573763954241667</v>
+        <v>0.006448435759721574</v>
       </c>
       <c r="T21">
-        <v>0.005573763954241667</v>
+        <v>0.006448435759721572</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H22">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I22">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J22">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N22">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O22">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P22">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q22">
-        <v>2838.918914709401</v>
+        <v>2361.168736689048</v>
       </c>
       <c r="R22">
-        <v>25550.27023238461</v>
+        <v>21250.51863020143</v>
       </c>
       <c r="S22">
-        <v>0.1978562134359738</v>
+        <v>0.1140190712339879</v>
       </c>
       <c r="T22">
-        <v>0.1978562134359738</v>
+        <v>0.1140190712339879</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H23">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I23">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J23">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>89.98324</v>
       </c>
       <c r="O23">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P23">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q23">
-        <v>590.1702967056978</v>
+        <v>470.4564042450799</v>
       </c>
       <c r="R23">
-        <v>5311.53267035128</v>
+        <v>4234.107638205719</v>
       </c>
       <c r="S23">
-        <v>0.04113145309771106</v>
+        <v>0.02271798767898466</v>
       </c>
       <c r="T23">
-        <v>0.04113145309771106</v>
+        <v>0.02271798767898466</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H24">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I24">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J24">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N24">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O24">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P24">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q24">
-        <v>621.9377614735698</v>
+        <v>529.558318577981</v>
       </c>
       <c r="R24">
-        <v>5597.439853262128</v>
+        <v>4766.024867201828</v>
       </c>
       <c r="S24">
-        <v>0.04334546148550442</v>
+        <v>0.02557197489119785</v>
       </c>
       <c r="T24">
-        <v>0.04334546148550442</v>
+        <v>0.02557197489119784</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H25">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I25">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J25">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N25">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O25">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P25">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q25">
-        <v>288.7379176165418</v>
+        <v>281.4803014100549</v>
       </c>
       <c r="R25">
-        <v>2598.641258548876</v>
+        <v>2533.322712690494</v>
       </c>
       <c r="S25">
-        <v>0.02012336131158749</v>
+        <v>0.01359247309975884</v>
       </c>
       <c r="T25">
-        <v>0.02012336131158749</v>
+        <v>0.01359247309975883</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H26">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I26">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J26">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N26">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O26">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P26">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q26">
-        <v>644.8283758570011</v>
+        <v>541.4563380725509</v>
       </c>
       <c r="R26">
-        <v>5803.455382713009</v>
+        <v>4873.107042652959</v>
       </c>
       <c r="S26">
-        <v>0.04494080479089516</v>
+        <v>0.02614652134830411</v>
       </c>
       <c r="T26">
-        <v>0.04494080479089516</v>
+        <v>0.02614652134830409</v>
       </c>
     </row>
   </sheetData>
